--- a/reports/Debug-snowbowl-20251217/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Debug-snowbowl-20251217/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -43,10 +43,13 @@
     <t>account</t>
   </si>
   <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
     <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
   </si>
   <si>
     <t xml:space="preserve">T100                     </t>
@@ -458,10 +461,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -472,22 +475,24 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>29363.2500</v>
+        <v>-813.8800</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>-813.8800</v>
+        <v>196.3500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -495,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>196.3500</v>
+        <v>29363.2500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -509,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>710194.6700</v>
@@ -524,7 +529,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>50446.4800</v>
@@ -536,7 +541,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>295075.9600</v>
@@ -548,7 +553,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>111873.9300</v>
@@ -560,7 +565,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>116868.7500</v>
@@ -572,7 +577,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>156740.7600</v>
@@ -584,7 +589,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>13442.8400</v>
